--- a/Matlab_experiments/simVocab/rez.xlsx
+++ b/Matlab_experiments/simVocab/rez.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>HMDB51</t>
   </si>
@@ -85,8 +85,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -98,13 +100,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -434,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E8"/>
+  <dimension ref="A3:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -489,6 +493,22 @@
       </c>
       <c r="E8" s="1">
         <v>0.3327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.14710000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9.1499999999999998E-2</v>
       </c>
     </row>
   </sheetData>
